--- a/提出書類/テスト表.xlsx
+++ b/提出書類/テスト表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\7d10\Desktop\ソフトウェア開発③「家計簿」\kakeibo\提出書類\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30F43528-8B23-447C-9DB6-09FF8E195EB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE238CDB-DA53-453E-8BE9-3CF06639BE20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{07ED92A0-0CD0-4918-B5A0-1AE933745E67}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="29">
   <si>
     <t>テスト表</t>
     <rPh sb="3" eb="4">
@@ -340,6 +340,9 @@
       <t>サクジョ</t>
     </rPh>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TC06</t>
   </si>
 </sst>
 </file>
@@ -481,7 +484,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -526,6 +529,12 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -843,8 +852,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68EBF958-EEDE-4D8F-AF30-5EA2C1042055}">
   <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.875" defaultRowHeight="19.5" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -891,7 +900,7 @@
       <c r="A4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="15" t="s">
         <v>14</v>
       </c>
       <c r="C4" s="5" t="s">
@@ -908,11 +917,9 @@
     </row>
     <row r="5" spans="1:7" ht="49.5" x14ac:dyDescent="0.4">
       <c r="A5" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>14</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="B5" s="16"/>
       <c r="C5" s="5" t="s">
         <v>17</v>
       </c>
@@ -927,7 +934,7 @@
     </row>
     <row r="6" spans="1:7" ht="49.5" x14ac:dyDescent="0.4">
       <c r="A6" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B6" s="12" t="s">
         <v>19</v>
@@ -946,7 +953,7 @@
     </row>
     <row r="7" spans="1:7" ht="49.5" x14ac:dyDescent="0.4">
       <c r="A7" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B7" s="13"/>
       <c r="C7" s="5" t="s">
@@ -963,7 +970,7 @@
     </row>
     <row r="8" spans="1:7" ht="49.5" x14ac:dyDescent="0.4">
       <c r="A8" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B8" s="13"/>
       <c r="C8" s="7" t="s">
@@ -980,7 +987,7 @@
     </row>
     <row r="9" spans="1:7" ht="49.5" x14ac:dyDescent="0.4">
       <c r="A9" s="3" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="B9" s="14"/>
       <c r="C9" s="7" t="s">
@@ -996,8 +1003,9 @@
       <c r="G9" s="8"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="B6:B9"/>
+    <mergeCell ref="B4:B5"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
